--- a/bot.xlsx
+++ b/bot.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>vehiculo_id</t>
   </si>
@@ -41,6 +41,24 @@
   </si>
   <si>
     <t>longitud</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>zona</t>
+  </si>
+  <si>
+    <t>n_entregas</t>
+  </si>
+  <si>
+    <t>tiempo_total</t>
+  </si>
+  <si>
+    <t>combustible_usado</t>
+  </si>
+  <si>
+    <t>km_recorridos</t>
   </si>
 </sst>
 </file>
@@ -302,6 +320,7 @@
     <col customWidth="1" min="4" max="4" width="15.13"/>
     <col customWidth="1" min="5" max="5" width="16.5"/>
     <col customWidth="1" min="6" max="6" width="18.13"/>
+    <col customWidth="1" min="16" max="16" width="22.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -335,6 +354,27 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
